--- a/data/georgia_census/kakheti/dedofliswyaro/average_wages.xlsx
+++ b/data/georgia_census/kakheti/dedofliswyaro/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08B8B8E-F266-4BF5-8A15-6A0DB369BF79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A6455F-019A-4B5E-AB67-7F08BA2FB9CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60DE20A3-434A-4778-BC6D-E4DCC4C92413}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7970456C-5AB1-417E-AB1F-BBF0A0ECFF23}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C21BA97-7D62-4F9F-837C-308B4C095175}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47037C5-1C02-4309-98BF-D656433BCE12}"/>
 </file>